--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1263406.870129642</v>
+        <v>1313364.91521504</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13360835.96253918</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2460204.061553704</v>
+        <v>698313.6830760719</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7034102.943854457</v>
+        <v>7631288.733615837</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>117.5875966600463</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
@@ -674,7 +676,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -710,13 +712,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>24.93980197511973</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
@@ -832,7 +834,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -883,7 +885,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>200.6734854772456</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>190.2522762467033</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>139.7612597980879</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -1066,7 +1068,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>20.63623093988596</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
@@ -1111,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>233.3783593926333</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1133,7 +1135,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>94.87245177338917</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
         <v>19.05969460684969</v>
@@ -1145,10 +1147,10 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>57.36335635934025</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429392</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>5.470649906744617</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1373,19 +1375,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>175.1214594774108</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>221.4655660477381</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1430,10 +1432,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1531,7 +1533,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>51.58543740429418</v>
+        <v>51.58543740429434</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1619,13 +1621,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,22 +1660,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>299.6307676070001</v>
       </c>
       <c r="Y14" t="n">
-        <v>30.4446439462581</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1765,22 +1767,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>169.6356194967391</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -1813,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100375</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
@@ -2002,7 +2004,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -2011,16 +2013,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,22 +2055,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>180.0196592840957</v>
       </c>
       <c r="Y19" t="n">
-        <v>119.6878865881506</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,7 +2137,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>255.7713603095521</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -2248,16 +2250,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>181.2635869532363</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>161.6737988100367</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -2521,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>218.7757544134941</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>154.8833258811978</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2716,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>265.3439815931926</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2953,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>25.45817320599559</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>98.15366458399308</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
@@ -3202,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>189.0699279459422</v>
+        <v>11.12043047005062</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3272,7 +3274,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453622</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.2643090249418</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3430,7 +3432,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
@@ -3439,10 +3441,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>36.20848765291692</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3664,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429501</v>
       </c>
       <c r="E40" t="n">
-        <v>138.778687051826</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3721,10 +3723,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>233.8566905236903</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>186.9176635037755</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3901,19 +3903,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429501</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,13 +3951,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>215.5859136845943</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>411.0014705972759</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3983,19 +3985,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>169.3769008820855</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4135,19 +4137,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.5026140238541</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1280.726190808058</v>
+        <v>568.8670150191533</v>
       </c>
       <c r="C2" t="n">
-        <v>1257.865864861762</v>
+        <v>546.0066890728575</v>
       </c>
       <c r="D2" t="n">
-        <v>834.5732440467624</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E2" t="n">
-        <v>812.636708235024</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F2" t="n">
-        <v>791.5529304648283</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G2" t="n">
-        <v>387.2138680542769</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H2" t="n">
-        <v>89.34548952831176</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>244.9404807450223</v>
+        <v>455.3583126271592</v>
       </c>
       <c r="L2" t="n">
-        <v>244.9404807450223</v>
+        <v>455.3583126271592</v>
       </c>
       <c r="M2" t="n">
-        <v>244.9404807450223</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="N2" t="n">
-        <v>918.7421318583365</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O2" t="n">
-        <v>1592.543782971651</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P2" t="n">
-        <v>2266.345434084965</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q2" t="n">
-        <v>2722.430913589148</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2618.063619462288</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T2" t="n">
-        <v>2397.138048506922</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U2" t="n">
-        <v>2138.783139103334</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V2" t="n">
-        <v>2113.591419936547</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="W2" t="n">
-        <v>2113.591419936547</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="X2" t="n">
-        <v>1701.871421104294</v>
+        <v>1092.979635225926</v>
       </c>
       <c r="Y2" t="n">
-        <v>1700.574555099588</v>
+        <v>687.6423651808162</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1480.866774040094</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>1363.360870557599</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>1259.520912072884</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>1154.818978345821</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>1061.173148028725</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>967.1193762463289</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>913.7432830086385</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>913.7432830086385</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>913.7432830086385</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>1374.82761136252</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L3" t="n">
-        <v>2048.629262475834</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M3" t="n">
-        <v>2048.629262475834</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N3" t="n">
-        <v>2722.430913589148</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O3" t="n">
-        <v>2722.430913589148</v>
+        <v>1424.973427259627</v>
       </c>
       <c r="P3" t="n">
-        <v>2722.430913589148</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q3" t="n">
-        <v>2722.430913589148</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
-        <v>2722.430913589148</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>2641.106666150403</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>2499.226730448081</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>2314.458534367718</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>2109.485395506984</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1912.964018340201</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>1749.486672106864</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>1609.793783460156</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>979.9051983669513</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C4" t="n">
-        <v>979.9051983669513</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D4" t="n">
-        <v>979.9051983669513</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E4" t="n">
-        <v>979.9051983669513</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F4" t="n">
-        <v>808.0434241415117</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G4" t="n">
-        <v>641.7864544357437</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
-        <v>641.7864544357437</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
-        <v>542.0178861760197</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>599.5092144001777</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K4" t="n">
-        <v>826.0368156060149</v>
+        <v>328.5171544792431</v>
       </c>
       <c r="L4" t="n">
-        <v>1180.726136900436</v>
+        <v>683.2064757736639</v>
       </c>
       <c r="M4" t="n">
-        <v>1571.911931870686</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1949.403442746722</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>2304.831571426485</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2595.430783348386</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2675.392300276321</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2505.257252795456</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T4" t="n">
-        <v>2261.917905021356</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U4" t="n">
-        <v>1981.73345652166</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V4" t="n">
-        <v>1700.021989129689</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W4" t="n">
-        <v>1425.169585302202</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X4" t="n">
-        <v>1182.605688748007</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y4" t="n">
-        <v>979.9051983669513</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>947.9609410255639</v>
+        <v>1036.972874144192</v>
       </c>
       <c r="C5" t="n">
-        <v>521.0602110388641</v>
+        <v>1014.112548197896</v>
       </c>
       <c r="D5" t="n">
-        <v>501.8079942642684</v>
+        <v>994.8603314233001</v>
       </c>
       <c r="E5" t="n">
-        <v>479.87145845253</v>
+        <v>802.6863150124886</v>
       </c>
       <c r="F5" t="n">
-        <v>458.7876806823343</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G5" t="n">
-        <v>54.44861827178296</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H5" t="n">
-        <v>54.44861827178296</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>54.44861827178296</v>
+        <v>455.3583126271592</v>
       </c>
       <c r="L5" t="n">
-        <v>54.44861827178296</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="M5" t="n">
-        <v>583.4696253673028</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="N5" t="n">
-        <v>1257.271276480617</v>
+        <v>1006.023847611597</v>
       </c>
       <c r="O5" t="n">
-        <v>1931.072927593931</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="P5" t="n">
-        <v>2604.874578707245</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
-        <v>2604.874578707245</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2722.430913589148</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2581.25792389411</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>2581.25792389411</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V5" t="n">
-        <v>2581.25792389411</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="W5" t="n">
-        <v>2184.866574194456</v>
+        <v>1465.797699232276</v>
       </c>
       <c r="X5" t="n">
-        <v>1773.146575362204</v>
+        <v>1458.118104440427</v>
       </c>
       <c r="Y5" t="n">
-        <v>1367.809305317094</v>
+        <v>1052.780834395317</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>201.8784832918694</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>54.44861827178296</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="K6" t="n">
-        <v>54.44861827178296</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="L6" t="n">
-        <v>54.44861827178296</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="M6" t="n">
-        <v>728.2502693850971</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="N6" t="n">
-        <v>1107.315287654275</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="O6" t="n">
-        <v>1781.11693876759</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P6" t="n">
-        <v>1781.11693876759</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>1781.11693876759</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>992.2174488073085</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>820.2448856862245</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>656.9281128129952</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>490.7199069658487</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>318.8581327404091</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>298.0134550233526</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>154.217186531507</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2187.823032372085</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2017.687984891219</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T7" t="n">
-        <v>2017.687984891219</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="U7" t="n">
-        <v>2017.687984891219</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="V7" t="n">
-        <v>1735.976517499248</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="W7" t="n">
-        <v>1461.124113671761</v>
+        <v>1779.923801154024</v>
       </c>
       <c r="X7" t="n">
-        <v>1218.560217117566</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>992.2174488073085</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>510.718944891485</v>
+        <v>591.614269593831</v>
       </c>
       <c r="C8" t="n">
-        <v>414.8881855244252</v>
+        <v>164.7135396071311</v>
       </c>
       <c r="D8" t="n">
-        <v>395.6359687498295</v>
+        <v>145.4613228325354</v>
       </c>
       <c r="E8" t="n">
-        <v>373.6994329380911</v>
+        <v>123.524787020797</v>
       </c>
       <c r="F8" t="n">
-        <v>352.6156551678955</v>
+        <v>102.4410092506013</v>
       </c>
       <c r="G8" t="n">
-        <v>352.3169967977481</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>417.0520770886785</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>417.0520770886785</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>1090.853728201993</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M8" t="n">
-        <v>1764.655379315307</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="N8" t="n">
-        <v>2438.457030428621</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O8" t="n">
-        <v>2604.874578707245</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="P8" t="n">
-        <v>2604.874578707245</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q8" t="n">
-        <v>2604.874578707245</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>2501.505342633781</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>2501.505342633781</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>2144.015927760031</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W8" t="n">
-        <v>1747.624578060377</v>
+        <v>1828.519902762723</v>
       </c>
       <c r="X8" t="n">
-        <v>1335.904579228125</v>
+        <v>1416.799903930471</v>
       </c>
       <c r="Y8" t="n">
-        <v>930.567309183015</v>
+        <v>1011.462633885361</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>201.8784832918694</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>728.2502693850971</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M9" t="n">
-        <v>1189.334597738979</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N9" t="n">
-        <v>1189.334597738979</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O9" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>638.8287000143777</v>
+        <v>268.5772905989112</v>
       </c>
       <c r="C10" t="n">
-        <v>466.8561368932936</v>
+        <v>96.60472747782725</v>
       </c>
       <c r="D10" t="n">
-        <v>303.5393640200643</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E10" t="n">
-        <v>303.5393640200643</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F10" t="n">
-        <v>303.5393640200643</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G10" t="n">
-        <v>298.0134550233526</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H10" t="n">
-        <v>154.217186531507</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I10" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2187.823032372085</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2187.823032372085</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1944.483684597984</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1664.299236098289</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1382.587768706318</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1107.735364878831</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>865.1714683246356</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>638.8287000143777</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>956.1080898929438</v>
+        <v>2429.413071721396</v>
       </c>
       <c r="C11" t="n">
-        <v>529.2073599062439</v>
+        <v>2002.512341734696</v>
       </c>
       <c r="D11" t="n">
-        <v>529.2073599062439</v>
+        <v>1579.219720919696</v>
       </c>
       <c r="E11" t="n">
-        <v>529.2073599062439</v>
+        <v>1153.242781067554</v>
       </c>
       <c r="F11" t="n">
-        <v>352.3169967977481</v>
+        <v>728.1185992569538</v>
       </c>
       <c r="G11" t="n">
-        <v>352.3169967977481</v>
+        <v>323.7795368464024</v>
       </c>
       <c r="H11" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I11" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>417.0520770886785</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K11" t="n">
-        <v>1090.853728201993</v>
+        <v>815.5852528544892</v>
       </c>
       <c r="L11" t="n">
-        <v>1764.655379315307</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M11" t="n">
-        <v>1764.655379315307</v>
+        <v>2749.496401892824</v>
       </c>
       <c r="N11" t="n">
-        <v>1931.072927593931</v>
+        <v>3725.747460379525</v>
       </c>
       <c r="O11" t="n">
-        <v>2604.874578707245</v>
+        <v>4570.892110530337</v>
       </c>
       <c r="P11" t="n">
-        <v>2604.874578707245</v>
+        <v>4886.290909067604</v>
       </c>
       <c r="Q11" t="n">
-        <v>2604.874578707245</v>
+        <v>4886.290909067604</v>
       </c>
       <c r="R11" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949506</v>
       </c>
       <c r="S11" t="n">
-        <v>2618.063619462288</v>
+        <v>4899.479949822647</v>
       </c>
       <c r="T11" t="n">
-        <v>2397.138048506922</v>
+        <v>4678.554378867279</v>
       </c>
       <c r="U11" t="n">
-        <v>2138.783139103334</v>
+        <v>4420.199469463691</v>
       </c>
       <c r="V11" t="n">
-        <v>1781.293724229584</v>
+        <v>4062.710054589941</v>
       </c>
       <c r="W11" t="n">
-        <v>1781.293724229584</v>
+        <v>3666.318704890288</v>
       </c>
       <c r="X11" t="n">
-        <v>1781.293724229584</v>
+        <v>3254.598706058036</v>
       </c>
       <c r="Y11" t="n">
-        <v>1375.956454184474</v>
+        <v>2849.261436012926</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E12" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F12" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>644.9335448401225</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L12" t="n">
-        <v>644.9335448401225</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M12" t="n">
-        <v>644.9335448401225</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="N12" t="n">
-        <v>1318.735195953437</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O12" t="n">
-        <v>1318.735195953437</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P12" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q12" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>278.5276838214469</v>
+        <v>324.1560104286543</v>
       </c>
       <c r="C13" t="n">
-        <v>106.5551207003629</v>
+        <v>152.1834473075703</v>
       </c>
       <c r="D13" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="E13" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="F13" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G13" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H13" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I13" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031482</v>
       </c>
       <c r="K13" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>693.1568689961989</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M13" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q13" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R13" t="n">
-        <v>2187.823032372085</v>
+        <v>2233.451358979292</v>
       </c>
       <c r="S13" t="n">
-        <v>2017.687984891219</v>
+        <v>2063.316311498427</v>
       </c>
       <c r="T13" t="n">
-        <v>1774.348637117119</v>
+        <v>1819.976963724327</v>
       </c>
       <c r="U13" t="n">
-        <v>1494.164188617424</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V13" t="n">
-        <v>1212.452721225452</v>
+        <v>1258.08104783266</v>
       </c>
       <c r="W13" t="n">
-        <v>937.6003173979655</v>
+        <v>983.2286440051728</v>
       </c>
       <c r="X13" t="n">
-        <v>695.0364208437705</v>
+        <v>740.6647474509779</v>
       </c>
       <c r="Y13" t="n">
-        <v>468.6936525335126</v>
+        <v>514.3219791407199</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1755.743090736225</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C14" t="n">
-        <v>1328.842360749525</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D14" t="n">
-        <v>905.5497399345252</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E14" t="n">
-        <v>479.5728000823827</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
-        <v>54.44861827178296</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
-        <v>54.44861827178296</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>54.44861827178296</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>417.0520770886785</v>
+        <v>462.6804036958857</v>
       </c>
       <c r="K14" t="n">
-        <v>1090.853728201993</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>1764.655379315307</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>1764.655379315307</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N14" t="n">
-        <v>2438.457030428621</v>
+        <v>3702.617114294512</v>
       </c>
       <c r="O14" t="n">
-        <v>2722.430913589148</v>
+        <v>4547.761764445324</v>
       </c>
       <c r="P14" t="n">
-        <v>2722.430913589148</v>
+        <v>4547.761764445324</v>
       </c>
       <c r="Q14" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="R14" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="S14" t="n">
-        <v>2618.063619462288</v>
+        <v>4899.479949822648</v>
       </c>
       <c r="T14" t="n">
-        <v>2618.063619462288</v>
+        <v>4678.55437886728</v>
       </c>
       <c r="U14" t="n">
-        <v>2618.063619462288</v>
+        <v>4420.199469463692</v>
       </c>
       <c r="V14" t="n">
-        <v>2618.063619462288</v>
+        <v>4062.710054589942</v>
       </c>
       <c r="W14" t="n">
-        <v>2618.063619462288</v>
+        <v>3666.318704890289</v>
       </c>
       <c r="X14" t="n">
-        <v>2206.343620630036</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y14" t="n">
-        <v>2175.591455027755</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E15" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F15" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>326.146107551374</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>326.146107551374</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L15" t="n">
-        <v>725.1891208761992</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M15" t="n">
-        <v>725.1891208761992</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="N15" t="n">
-        <v>725.1891208761992</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O15" t="n">
-        <v>1398.990771989513</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P15" t="n">
-        <v>1398.990771989513</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q15" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R15" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>325.5662971342737</v>
+        <v>1183.258067403227</v>
       </c>
       <c r="C16" t="n">
-        <v>154.217186531507</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D16" t="n">
-        <v>154.217186531507</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E16" t="n">
-        <v>154.217186531507</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F16" t="n">
-        <v>154.217186531507</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G16" t="n">
-        <v>154.217186531507</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H16" t="n">
-        <v>154.217186531507</v>
+        <v>199.8455131387142</v>
       </c>
       <c r="I16" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031482</v>
       </c>
       <c r="K16" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>693.1568689961989</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M16" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q16" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R16" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="S16" t="n">
-        <v>2064.726598204046</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="T16" t="n">
-        <v>1821.387250429946</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="U16" t="n">
-        <v>1541.20280193025</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="V16" t="n">
-        <v>1259.491334538279</v>
+        <v>2117.183104807232</v>
       </c>
       <c r="W16" t="n">
-        <v>984.6389307107922</v>
+        <v>1842.330700979745</v>
       </c>
       <c r="X16" t="n">
-        <v>742.0750341565973</v>
+        <v>1599.766804425551</v>
       </c>
       <c r="Y16" t="n">
-        <v>515.7322658463394</v>
+        <v>1373.424036115293</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5506,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5513,31 +5515,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2720.098147267829</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3696.34920575453</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
         <v>5010.768376164567</v>
@@ -5555,7 +5557,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C18" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259877</v>
       </c>
       <c r="D18" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775162</v>
       </c>
       <c r="E18" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.5237350481</v>
       </c>
       <c r="F18" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731004</v>
       </c>
       <c r="G18" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948608</v>
       </c>
       <c r="H18" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>4362.434577686963</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R18" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S18" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852681</v>
       </c>
       <c r="T18" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.931487150359</v>
       </c>
       <c r="U18" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069996</v>
       </c>
       <c r="V18" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209263</v>
       </c>
       <c r="W18" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.66877504248</v>
       </c>
       <c r="X18" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809143</v>
       </c>
       <c r="Y18" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162435</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>431.8276921262043</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C19" t="n">
-        <v>431.8276921262043</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D19" t="n">
-        <v>268.510919252975</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E19" t="n">
-        <v>102.3027134058285</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3027134058285</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5701,22 +5703,22 @@
         <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1783.830612633294</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1783.830612633294</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778161</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y19" t="n">
-        <v>621.99366083827</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2036.213862444163</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
-        <v>3012.464920930865</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O20" t="n">
-        <v>3857.609571081677</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P20" t="n">
-        <v>4565.888850239604</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q20" t="n">
-        <v>5021.974329743787</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C21" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D21" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E21" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>4025.820723818557</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y21" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4017.903765402536</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C22" t="n">
-        <v>3845.931202281452</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D22" t="n">
-        <v>3682.614429408222</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E22" t="n">
-        <v>3516.406223561076</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F22" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T22" t="n">
-        <v>5115.135670291427</v>
+        <v>2099.621208542961</v>
       </c>
       <c r="U22" t="n">
-        <v>5115.135670291427</v>
+        <v>1819.436760043265</v>
       </c>
       <c r="V22" t="n">
-        <v>4951.828802806542</v>
+        <v>1537.725292651294</v>
       </c>
       <c r="W22" t="n">
-        <v>4676.976398979054</v>
+        <v>1262.872888823807</v>
       </c>
       <c r="X22" t="n">
-        <v>4434.41250242486</v>
+        <v>1020.308992269612</v>
       </c>
       <c r="Y22" t="n">
-        <v>4208.069734114601</v>
+        <v>793.966223959354</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,13 +5977,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
@@ -6005,19 +6007,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C24" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259877</v>
       </c>
       <c r="D24" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775162</v>
       </c>
       <c r="E24" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.5237350481</v>
       </c>
       <c r="F24" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731004</v>
       </c>
       <c r="G24" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948608</v>
       </c>
       <c r="H24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>3578.145528990509</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>3578.145528990509</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>3578.145528990509</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>3578.145528990509</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>4667.460475463378</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>4667.460475463378</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>4667.460475463378</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S24" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852681</v>
       </c>
       <c r="T24" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.931487150359</v>
       </c>
       <c r="U24" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069996</v>
       </c>
       <c r="V24" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209263</v>
       </c>
       <c r="W24" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.66877504248</v>
       </c>
       <c r="X24" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809143</v>
       </c>
       <c r="Y24" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162435</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4017.903765402536</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C25" t="n">
-        <v>3845.931202281452</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D25" t="n">
-        <v>3682.614429408222</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E25" t="n">
-        <v>3516.406223561076</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F25" t="n">
-        <v>3344.544449335636</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G25" t="n">
-        <v>3178.287479629868</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>4897.962009497735</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>4676.976398979054</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U25" t="n">
-        <v>4676.976398979054</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V25" t="n">
-        <v>4676.976398979054</v>
+        <v>2001.004273426986</v>
       </c>
       <c r="W25" t="n">
-        <v>4676.976398979054</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X25" t="n">
-        <v>4434.41250242486</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y25" t="n">
-        <v>4208.069734114601</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,13 +6214,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
@@ -6242,19 +6244,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6309,10 +6311,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4017.903765402536</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>3845.931202281452</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>3682.614429408222</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>3516.406223561076</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>4945.000622810562</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>4945.000622810562</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>4945.000622810562</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>4945.000622810562</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>4676.976398979054</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>4434.41250242486</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>4208.069734114601</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6464,34 +6466,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6546,16 +6548,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P30" t="n">
         <v>1910.990343986338</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3375.975369221655</v>
+        <v>3205.840321740789</v>
       </c>
       <c r="C31" t="n">
-        <v>3204.002806100571</v>
+        <v>3033.867758619705</v>
       </c>
       <c r="D31" t="n">
-        <v>3178.287479629868</v>
+        <v>3033.867758619705</v>
       </c>
       <c r="E31" t="n">
-        <v>3178.287479629868</v>
+        <v>3033.867758619705</v>
       </c>
       <c r="F31" t="n">
-        <v>3178.287479629868</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="G31" t="n">
-        <v>3178.287479629868</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="H31" t="n">
-        <v>3034.491211138023</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P31" t="n">
         <v>4988.135540050665</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R31" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S31" t="n">
-        <v>5115.135670291427</v>
+        <v>4945.000622810561</v>
       </c>
       <c r="T31" t="n">
-        <v>4871.796322517327</v>
+        <v>4701.661275036461</v>
       </c>
       <c r="U31" t="n">
-        <v>4591.611874017632</v>
+        <v>4421.476826536766</v>
       </c>
       <c r="V31" t="n">
-        <v>4309.90040662566</v>
+        <v>4139.765359144794</v>
       </c>
       <c r="W31" t="n">
-        <v>4035.048002798173</v>
+        <v>3864.912955317307</v>
       </c>
       <c r="X31" t="n">
-        <v>3792.484106243979</v>
+        <v>3622.349058763113</v>
       </c>
       <c r="Y31" t="n">
-        <v>3566.14133793372</v>
+        <v>3396.006290452855</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6686,13 +6688,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
@@ -6701,34 +6703,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>651.5495334576507</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>1581.174581076927</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1019.226866224298</v>
+        <v>3608.081958945197</v>
       </c>
       <c r="C34" t="n">
-        <v>847.2543031032136</v>
+        <v>3436.109395824113</v>
       </c>
       <c r="D34" t="n">
-        <v>683.9375302299843</v>
+        <v>3272.792622950884</v>
       </c>
       <c r="E34" t="n">
-        <v>517.7293243828378</v>
+        <v>3106.584417103737</v>
       </c>
       <c r="F34" t="n">
-        <v>345.8675501573982</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L34" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M34" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N34" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O34" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P34" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q34" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S34" t="n">
-        <v>2235.67712750613</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.697402308209</v>
+        <v>5103.90291224087</v>
       </c>
       <c r="U34" t="n">
-        <v>2044.697402308209</v>
+        <v>4823.718463741175</v>
       </c>
       <c r="V34" t="n">
-        <v>1762.985934916238</v>
+        <v>4542.006996349203</v>
       </c>
       <c r="W34" t="n">
-        <v>1488.13353108875</v>
+        <v>4267.154592521716</v>
       </c>
       <c r="X34" t="n">
-        <v>1245.569634534556</v>
+        <v>4024.590695967521</v>
       </c>
       <c r="Y34" t="n">
-        <v>1019.226866224298</v>
+        <v>3798.247927657263</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
         <v>1264.531207409474</v>
@@ -6935,52 +6937,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1581.174581076928</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M35" t="n">
-        <v>2585.460682495986</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N35" t="n">
-        <v>3561.711740982687</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O35" t="n">
-        <v>4406.8563911335</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="36">
@@ -7023,7 +7025,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N36" t="n">
         <v>1910.990343986338</v>
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>775.7107933313494</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C37" t="n">
-        <v>603.7382302102653</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D37" t="n">
-        <v>440.421457337036</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E37" t="n">
-        <v>440.421457337036</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F37" t="n">
-        <v>268.5596831115964</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U37" t="n">
-        <v>1785.357631525569</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V37" t="n">
-        <v>1503.646164133598</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W37" t="n">
-        <v>1228.793760306111</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X37" t="n">
-        <v>1192.21953035367</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y37" t="n">
-        <v>965.8767620434118</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,13 +7162,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7181,28 +7183,28 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N38" t="n">
-        <v>3561.711740982687</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O38" t="n">
-        <v>4406.8563911335</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7260,10 +7262,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>102.3027134058285</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N39" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
         <v>1910.990343986338</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3676.218008809645</v>
+        <v>3158.801708427963</v>
       </c>
       <c r="C40" t="n">
-        <v>3504.245445688561</v>
+        <v>2986.829145306879</v>
       </c>
       <c r="D40" t="n">
-        <v>3340.928672815332</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="E40" t="n">
-        <v>3200.748180843791</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="F40" t="n">
-        <v>3200.748180843791</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="G40" t="n">
-        <v>3034.491211138023</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="H40" t="n">
-        <v>3034.491211138023</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878299</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102457</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308294</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602715</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572966</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449001</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128765</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P40" t="n">
         <v>4988.135540050665</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R40" t="n">
         <v>5068.0970569786</v>
       </c>
       <c r="S40" t="n">
-        <v>4897.962009497735</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="T40" t="n">
-        <v>4654.622661723635</v>
+        <v>4654.622661723634</v>
       </c>
       <c r="U40" t="n">
-        <v>4374.43821322394</v>
+        <v>4374.438213223939</v>
       </c>
       <c r="V40" t="n">
-        <v>4092.726745831969</v>
+        <v>4092.726745831968</v>
       </c>
       <c r="W40" t="n">
-        <v>4092.726745831969</v>
+        <v>3817.874342004481</v>
       </c>
       <c r="X40" t="n">
-        <v>4092.726745831969</v>
+        <v>3575.310445450286</v>
       </c>
       <c r="Y40" t="n">
-        <v>3866.383977521711</v>
+        <v>3348.967677140028</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1311.665350521177</v>
+        <v>2429.413071721397</v>
       </c>
       <c r="C41" t="n">
-        <v>884.7646205344768</v>
+        <v>2002.512341734697</v>
       </c>
       <c r="D41" t="n">
-        <v>884.7646205344768</v>
+        <v>1579.219720919697</v>
       </c>
       <c r="E41" t="n">
-        <v>458.7876806823343</v>
+        <v>1153.242781067554</v>
       </c>
       <c r="F41" t="n">
-        <v>458.7876806823343</v>
+        <v>728.1185992569547</v>
       </c>
       <c r="G41" t="n">
-        <v>54.44861827178296</v>
+        <v>323.7795368464033</v>
       </c>
       <c r="H41" t="n">
-        <v>54.44861827178296</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>417.0520770886785</v>
+        <v>462.6804036958857</v>
       </c>
       <c r="K41" t="n">
-        <v>1090.853728201993</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>1090.853728201993</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>1090.853728201993</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N41" t="n">
-        <v>1257.271276480617</v>
+        <v>4088.350919196421</v>
       </c>
       <c r="O41" t="n">
-        <v>1931.072927593931</v>
+        <v>4933.495569347233</v>
       </c>
       <c r="P41" t="n">
-        <v>2604.874578707245</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="Q41" t="n">
-        <v>2604.874578707245</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="S41" t="n">
-        <v>2722.430913589148</v>
+        <v>4899.479949822648</v>
       </c>
       <c r="T41" t="n">
-        <v>2722.430913589148</v>
+        <v>4678.55437886728</v>
       </c>
       <c r="U41" t="n">
-        <v>2722.430913589148</v>
+        <v>4420.199469463692</v>
       </c>
       <c r="V41" t="n">
-        <v>2364.941498715398</v>
+        <v>4062.710054589942</v>
       </c>
       <c r="W41" t="n">
-        <v>2364.941498715398</v>
+        <v>3666.318704890289</v>
       </c>
       <c r="X41" t="n">
-        <v>1953.221499883145</v>
+        <v>3254.598706058036</v>
       </c>
       <c r="Y41" t="n">
-        <v>1547.884229838035</v>
+        <v>2849.261436012927</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1480.866774040094</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>1363.360870557599</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>1259.520912072884</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E42" t="n">
-        <v>1154.818978345821</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F42" t="n">
-        <v>1061.173148028725</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>967.1193762463289</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>913.7432830086385</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>913.7432830086385</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>913.7432830086385</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>913.7432830086385</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L42" t="n">
-        <v>913.7432830086385</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M42" t="n">
-        <v>1587.544934121953</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="N42" t="n">
-        <v>2261.346585235267</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O42" t="n">
-        <v>2722.430913589148</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P42" t="n">
-        <v>2722.430913589148</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q42" t="n">
-        <v>2722.430913589148</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
-        <v>2722.430913589148</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>2641.106666150403</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>2499.226730448081</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>2314.458534367718</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>2109.485395506984</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>1912.964018340201</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>1749.486672106864</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>1609.793783460156</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>865.9993983108562</v>
+        <v>3047.513282086044</v>
       </c>
       <c r="C43" t="n">
-        <v>694.0268351897722</v>
+        <v>2875.54071896496</v>
       </c>
       <c r="D43" t="n">
-        <v>530.7100623165429</v>
+        <v>2823.434216536379</v>
       </c>
       <c r="E43" t="n">
-        <v>364.5018564693964</v>
+        <v>2823.434216536379</v>
       </c>
       <c r="F43" t="n">
-        <v>364.5018564693964</v>
+        <v>2823.434216536379</v>
       </c>
       <c r="G43" t="n">
-        <v>198.2448867636286</v>
+        <v>2823.434216536379</v>
       </c>
       <c r="H43" t="n">
-        <v>54.44861827178296</v>
+        <v>2823.434216536379</v>
       </c>
       <c r="I43" t="n">
-        <v>54.44861827178296</v>
+        <v>2823.434216536379</v>
       </c>
       <c r="J43" t="n">
-        <v>111.939946495941</v>
+        <v>2880.925544760537</v>
       </c>
       <c r="K43" t="n">
-        <v>338.4675477017781</v>
+        <v>3107.453145966374</v>
       </c>
       <c r="L43" t="n">
-        <v>693.1568689961989</v>
+        <v>3462.142467260795</v>
       </c>
       <c r="M43" t="n">
-        <v>1084.34266396645</v>
+        <v>3853.328262231046</v>
       </c>
       <c r="N43" t="n">
-        <v>1461.834174842485</v>
+        <v>4230.819773107081</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.262303522249</v>
+        <v>4586.247901786845</v>
       </c>
       <c r="P43" t="n">
-        <v>2107.86151544415</v>
+        <v>4876.847113708745</v>
       </c>
       <c r="Q43" t="n">
-        <v>2234.861645684911</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="R43" t="n">
-        <v>2187.823032372085</v>
+        <v>4956.80863063668</v>
       </c>
       <c r="S43" t="n">
-        <v>2017.687984891219</v>
+        <v>4786.673583155815</v>
       </c>
       <c r="T43" t="n">
-        <v>2017.687984891219</v>
+        <v>4543.334235381715</v>
       </c>
       <c r="U43" t="n">
-        <v>2017.687984891219</v>
+        <v>4263.14978688202</v>
       </c>
       <c r="V43" t="n">
-        <v>1799.924435714862</v>
+        <v>3981.438319490049</v>
       </c>
       <c r="W43" t="n">
-        <v>1525.072031887375</v>
+        <v>3706.585915662562</v>
       </c>
       <c r="X43" t="n">
-        <v>1282.50813533318</v>
+        <v>3464.022019108367</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.165367022922</v>
+        <v>3237.679250798109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1500.853929552856</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C44" t="n">
-        <v>1073.953199566156</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D44" t="n">
-        <v>650.660578751156</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E44" t="n">
-        <v>650.660578751156</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>225.5363969405562</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G44" t="n">
-        <v>54.44861827178296</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
-        <v>54.44861827178296</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>54.44861827178296</v>
+        <v>462.6804036958857</v>
       </c>
       <c r="K44" t="n">
-        <v>54.44861827178296</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>728.2502693850971</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="M44" t="n">
-        <v>1402.051920498411</v>
+        <v>1900.530441767981</v>
       </c>
       <c r="N44" t="n">
-        <v>2048.629262475834</v>
+        <v>2876.781500254682</v>
       </c>
       <c r="O44" t="n">
-        <v>2722.430913589148</v>
+        <v>3721.926150405494</v>
       </c>
       <c r="P44" t="n">
-        <v>2722.430913589148</v>
+        <v>4430.205429563422</v>
       </c>
       <c r="Q44" t="n">
-        <v>2722.430913589148</v>
+        <v>4886.290909067605</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="T44" t="n">
-        <v>2722.430913589148</v>
+        <v>4782.92167299414</v>
       </c>
       <c r="U44" t="n">
-        <v>2722.430913589148</v>
+        <v>4524.566763590552</v>
       </c>
       <c r="V44" t="n">
-        <v>2722.430913589148</v>
+        <v>4167.077348716802</v>
       </c>
       <c r="W44" t="n">
-        <v>2326.039563889495</v>
+        <v>3770.685999017149</v>
       </c>
       <c r="X44" t="n">
-        <v>2326.039563889495</v>
+        <v>3358.966000184896</v>
       </c>
       <c r="Y44" t="n">
-        <v>1920.702293844386</v>
+        <v>2953.628730139787</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1480.866774040094</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>1363.360870557599</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>1259.520912072884</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E45" t="n">
-        <v>1154.818978345821</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F45" t="n">
-        <v>1061.173148028725</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>967.1193762463289</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>913.7432830086385</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>913.7432830086385</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J45" t="n">
-        <v>913.7432830086385</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K45" t="n">
-        <v>913.7432830086385</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L45" t="n">
-        <v>913.7432830086385</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M45" t="n">
-        <v>1587.544934121953</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="N45" t="n">
-        <v>2261.346585235267</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O45" t="n">
-        <v>2722.430913589148</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P45" t="n">
-        <v>2722.430913589148</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q45" t="n">
-        <v>2722.430913589148</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
-        <v>2722.430913589148</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>2641.106666150403</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>2499.226730448081</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>2314.458534367718</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>2109.485395506984</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>1912.964018340201</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>1749.486672106864</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>1609.793783460156</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1137.62974079602</v>
+        <v>509.8499874777062</v>
       </c>
       <c r="C46" t="n">
-        <v>965.6571776749358</v>
+        <v>509.8499874777062</v>
       </c>
       <c r="D46" t="n">
-        <v>802.3404048017065</v>
+        <v>509.8499874777062</v>
       </c>
       <c r="E46" t="n">
-        <v>636.1321989545601</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="F46" t="n">
-        <v>464.2704247291205</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="G46" t="n">
-        <v>298.0134550233526</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H46" t="n">
-        <v>154.217186531507</v>
+        <v>199.8455131387142</v>
       </c>
       <c r="I46" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031482</v>
       </c>
       <c r="K46" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>693.1568689961989</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M46" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q46" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R46" t="n">
-        <v>2234.861645684911</v>
+        <v>2233.451358979292</v>
       </c>
       <c r="S46" t="n">
-        <v>2234.861645684911</v>
+        <v>2233.451358979292</v>
       </c>
       <c r="T46" t="n">
-        <v>2234.861645684911</v>
+        <v>2005.670940773379</v>
       </c>
       <c r="U46" t="n">
-        <v>2234.861645684911</v>
+        <v>1725.486492273683</v>
       </c>
       <c r="V46" t="n">
-        <v>2071.554778200025</v>
+        <v>1443.775024881712</v>
       </c>
       <c r="W46" t="n">
-        <v>1796.702374372538</v>
+        <v>1168.922621054225</v>
       </c>
       <c r="X46" t="n">
-        <v>1554.138477818344</v>
+        <v>926.3587245000299</v>
       </c>
       <c r="Y46" t="n">
-        <v>1327.795709508086</v>
+        <v>700.0159561897719</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>228.1806234950512</v>
+        <v>450.7747902674474</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>717.8873512317331</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O2" t="n">
-        <v>717.9986877533111</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
-        <v>718.1830902075183</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,28 +8054,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>488.1409796453345</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L3" t="n">
-        <v>703.1228151115166</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>454.308647639304</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
@@ -8216,22 +8218,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>450.7747902674474</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>571.79591653127</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>717.8873512317331</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>717.9986877533111</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>718.1830902075183</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
@@ -8292,31 +8294,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>266.2788756958121</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>404.2369860611965</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>718.9197708299099</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>718.0389912967188</v>
+        <v>452.4414523720698</v>
       </c>
       <c r="N8" t="n">
-        <v>717.8873512317331</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>205.4894929707963</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
@@ -8535,16 +8537,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>703.1228151115166</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>488.8385263243295</v>
+        <v>181.3705437721212</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>703.7796181195092</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8687,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>205.378156449218</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>356.1600067973696</v>
       </c>
       <c r="Q11" t="n">
         <v>36.12467460459804</v>
@@ -8769,22 +8771,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685298</v>
       </c>
       <c r="N12" t="n">
-        <v>701.9507566108286</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>571.6708946380166</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8927,25 +8929,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>717.8873512317331</v>
+        <v>633.7616971625187</v>
       </c>
       <c r="O14" t="n">
-        <v>324.233265578779</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>35.03264989479647</v>
@@ -9003,28 +9005,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>425.5888375473863</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685298</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O15" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9170,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1019.918210644103</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9179,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>218.8019602116006</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9252,7 +9254,7 @@
         <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
-        <v>781.6471621574452</v>
+        <v>781.6471621574439</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9398,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9422,7 +9424,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>129.1350140843319</v>
+        <v>54.56363491934506</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,7 +9488,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685286</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N21" t="n">
         <v>1121.661155963915</v>
@@ -9653,7 +9655,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
@@ -9714,7 +9716,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>22.39923383333334</v>
@@ -9723,10 +9725,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9735,7 +9737,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>474.9442047819563</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9890,7 +9892,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
@@ -9957,13 +9959,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574452</v>
+        <v>1003.048909524252</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10112,10 +10114,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,19 +10196,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>227.574314522856</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10349,7 +10351,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>758.5002654165255</v>
+        <v>590.5593685239227</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10364,7 +10366,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
@@ -10583,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>809.3863451554519</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
@@ -10598,13 +10600,13 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>891.0724241548241</v>
+        <v>835.188203321007</v>
       </c>
       <c r="P35" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10671,10 +10673,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10829,7 +10831,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>883.9207714806259</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10838,7 +10840,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
@@ -10908,13 +10910,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
-        <v>949.8342934347922</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
         <v>21.77084120482866</v>
@@ -11060,28 +11062,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>205.378156449218</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>718.1830902075183</v>
+        <v>108.6376593882861</v>
       </c>
       <c r="Q41" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,13 +11147,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>703.704508909615</v>
+        <v>749.7358553685298</v>
       </c>
       <c r="N42" t="n">
-        <v>701.9507566108286</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
-        <v>488.9136355342233</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>718.9197708299099</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
-        <v>718.0389912967188</v>
+        <v>767.0693741081147</v>
       </c>
       <c r="N44" t="n">
-        <v>690.388049074267</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11382,13 +11384,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>703.704508909615</v>
+        <v>749.7358553685298</v>
       </c>
       <c r="N45" t="n">
-        <v>701.9507566108286</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O45" t="n">
-        <v>488.9136355342233</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
@@ -23261,19 +23263,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>245.7514805150829</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>73.4241286929674</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -23318,10 +23320,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.0981677402028</v>
+        <v>110.0981677402027</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>107.9720312369301</v>
       </c>
       <c r="Y14" t="n">
-        <v>370.8392533984004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6172179931340906</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,16 +23703,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.2205539080138</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>60.1185983045572</v>
       </c>
       <c r="Y19" t="n">
-        <v>104.3914540390047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24136,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,13 +24180,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>59.64236734312274</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>117.2205539080147</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24409,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>22.1301998828649</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,19 +24651,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>6.759898196019492</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>136.2254319385014</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>71.9894918991921</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>51.8360263504168</v>
+        <v>229.7855238263084</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25318,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>203.929769935736</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>110.098167740202</v>
       </c>
       <c r="E40" t="n">
-        <v>25.76743673684899</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>181.7931901249245</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>107.97203123693</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25789,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>110.098167740202</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25837,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>63.30843903345712</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>4.648410051338828</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25871,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>230.9187709043603</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,19 +25918,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26023,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>15.40334027250486</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>669495.1149561687</v>
+        <v>666554.9245224431</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>669495.1149561687</v>
+        <v>666554.9245224431</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>669495.1149561687</v>
+        <v>666554.9245224431</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>443779.650907436</v>
+        <v>651070.0717141234</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>443779.650907436</v>
+        <v>651070.0717141235</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>661181.7836451443</v>
+        <v>661181.7836451442</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>661181.7836451442</v>
+        <v>661181.7836451443</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>661181.7836451443</v>
+        <v>661181.7836451442</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>661181.7836451442</v>
+        <v>661181.7836451443</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>661181.7836451443</v>
+        <v>661181.7836451442</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>443779.6509074361</v>
+        <v>651070.0717141235</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>443779.6509074362</v>
+        <v>651070.0717141235</v>
       </c>
     </row>
   </sheetData>
@@ -26317,16 +26319,16 @@
         <v>378587.734207256</v>
       </c>
       <c r="D2" t="n">
-        <v>378587.7342072561</v>
+        <v>378587.7342072559</v>
       </c>
       <c r="E2" t="n">
-        <v>245210.4145420958</v>
+        <v>359733.2891431418</v>
       </c>
       <c r="F2" t="n">
-        <v>245210.4145420957</v>
+        <v>359733.2891431419</v>
       </c>
       <c r="G2" t="n">
-        <v>365319.7620393409</v>
+        <v>365319.7620393407</v>
       </c>
       <c r="H2" t="n">
         <v>365319.7620393408</v>
@@ -26335,7 +26337,7 @@
         <v>365319.7620393407</v>
       </c>
       <c r="J2" t="n">
-        <v>365319.7620393408</v>
+        <v>365319.7620393409</v>
       </c>
       <c r="K2" t="n">
         <v>365319.7620393407</v>
@@ -26344,16 +26346,16 @@
         <v>365319.7620393407</v>
       </c>
       <c r="M2" t="n">
-        <v>365319.762039341</v>
+        <v>365319.7620393407</v>
       </c>
       <c r="N2" t="n">
-        <v>365319.7620393407</v>
+        <v>365319.7620393408</v>
       </c>
       <c r="O2" t="n">
-        <v>245210.4145420959</v>
+        <v>359733.2891431419</v>
       </c>
       <c r="P2" t="n">
-        <v>245210.4145420958</v>
+        <v>359733.2891431421</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228087.303763684</v>
+        <v>186404.7334147372</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>207432.2876165611</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>163951.1208101861</v>
+        <v>7625.622083481234</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178076.9284887798</v>
+        <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>173130.4912056397</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146444.4874988407</v>
+        <v>165375.7390424566</v>
       </c>
       <c r="C4" t="n">
-        <v>146444.4874988407</v>
+        <v>165375.7390424566</v>
       </c>
       <c r="D4" t="n">
-        <v>146444.4874988407</v>
+        <v>165375.7390424566</v>
       </c>
       <c r="E4" t="n">
-        <v>29325.43720283132</v>
+        <v>43077.56596046207</v>
       </c>
       <c r="F4" t="n">
-        <v>29325.43720283132</v>
+        <v>43077.56596046207</v>
       </c>
       <c r="G4" t="n">
         <v>43748.40045389556</v>
@@ -26439,10 +26441,10 @@
         <v>43748.40045389556</v>
       </c>
       <c r="J4" t="n">
+        <v>43748.40045389557</v>
+      </c>
+      <c r="K4" t="n">
         <v>43748.40045389556</v>
-      </c>
-      <c r="K4" t="n">
-        <v>43748.40045389557</v>
       </c>
       <c r="L4" t="n">
         <v>43748.40045389556</v>
@@ -26454,10 +26456,10 @@
         <v>43748.40045389556</v>
       </c>
       <c r="O4" t="n">
-        <v>29325.43720283132</v>
+        <v>43077.56596046207</v>
       </c>
       <c r="P4" t="n">
-        <v>29325.43720283132</v>
+        <v>43077.56596046207</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.47810803249</v>
       </c>
       <c r="F5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.4781080325</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.4781080325</v>
       </c>
       <c r="P5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.4781080325</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-70952.60694182366</v>
+        <v>-40638.98928736587</v>
       </c>
       <c r="C6" t="n">
-        <v>157134.6968218603</v>
+        <v>145765.7441273712</v>
       </c>
       <c r="D6" t="n">
-        <v>157134.6968218604</v>
+        <v>145765.7441273712</v>
       </c>
       <c r="E6" t="n">
-        <v>174504.0274527094</v>
+        <v>33164.95745808614</v>
       </c>
       <c r="F6" t="n">
-        <v>174504.0274527094</v>
+        <v>240597.2450746474</v>
       </c>
       <c r="G6" t="n">
-        <v>79870.17858682961</v>
+        <v>236195.6773135342</v>
       </c>
       <c r="H6" t="n">
-        <v>243821.2993970155</v>
+        <v>243821.2993970156</v>
       </c>
       <c r="I6" t="n">
         <v>243821.2993970155</v>
       </c>
       <c r="J6" t="n">
-        <v>65744.37090823577</v>
+        <v>98287.62946219911</v>
       </c>
       <c r="K6" t="n">
         <v>243821.2993970154</v>
       </c>
       <c r="L6" t="n">
-        <v>243821.2993970154</v>
+        <v>243821.2993970155</v>
       </c>
       <c r="M6" t="n">
-        <v>243821.2993970157</v>
+        <v>70690.80819137587</v>
       </c>
       <c r="N6" t="n">
-        <v>243821.2993970155</v>
+        <v>243821.2993970156</v>
       </c>
       <c r="O6" t="n">
-        <v>174504.0274527096</v>
+        <v>240597.2450746473</v>
       </c>
       <c r="P6" t="n">
-        <v>174504.0274527094</v>
+        <v>240597.2450746475</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987377</v>
       </c>
       <c r="F4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987377</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987377</v>
       </c>
       <c r="P4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987377</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>694.7339978717824</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>598.1761891755698</v>
+        <v>27.82210658547981</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.6077283972871</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>694.7339978717824</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>694.7339978717824</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>598.1761891755698</v>
+        <v>27.82210658547981</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>298.0622839885684</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>328.9747187498933</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>23.40585514990977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
+        <v>231.4648942069177</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="F5" t="n">
-        <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>78.9550554477253</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -27679,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27786,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>143.9581690688242</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,13 +27833,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>6.759898196019606</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>327.7592709134437</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27865,10 +27867,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>342.9323154271056</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27904,13 +27906,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>110.0981677402031</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -28023,13 +28025,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>159.1237501019656</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -29992,7 +29994,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-2.779647469158316e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30141,7 +30143,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.205021433435225e-12</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -34699,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>192.4160227002418</v>
+        <v>415.010189472638</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O2" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P2" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,28 +34774,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>465.7417458120012</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L3" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>415.010189472638</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>534.3646536318382</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>245.6677613624788</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>382.8939578476548</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>680.607728397287</v>
+        <v>415.010189472638</v>
       </c>
       <c r="N8" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>168.0985336147722</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,16 +35257,16 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7417458120015</v>
+        <v>158.2737632597932</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35407,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>168.098533614772</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>318.5846449871383</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="N12" t="n">
-        <v>680.607728397287</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>549.900053433188</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35647,25 +35649,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>680.607728397287</v>
+        <v>596.4820743280726</v>
       </c>
       <c r="O14" t="n">
-        <v>286.8423062227549</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>403.0737508331568</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O15" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35890,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>982.4869477446711</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35899,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>181.2265984013693</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35972,7 +35974,7 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
-        <v>760.3041339439036</v>
+        <v>760.3041339439022</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36118,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36142,7 +36144,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>94.10236418953542</v>
+        <v>19.53098502454859</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,7 +36208,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562006</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N21" t="n">
         <v>1100.318127750374</v>
@@ -36373,7 +36375,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>452.1971664929778</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36610,7 +36612,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36677,13 +36679,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439036</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36832,10 +36834,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>722.7356646217162</v>
+        <v>554.7947677291133</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37084,7 +37086,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37303,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>771.074302722829</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
@@ -37318,13 +37320,13 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>853.6814647988001</v>
+        <v>797.797243964983</v>
       </c>
       <c r="P35" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37391,10 +37393,10 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>846.4895085811942</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37558,7 +37560,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37628,13 +37630,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
-        <v>928.4912652212506</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>168.098533614772</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>680.607728397287</v>
+        <v>71.06229757805477</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,13 +37867,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>680.607728397287</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="N42" t="n">
-        <v>680.607728397287</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
-        <v>465.7417458120011</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>680.607728397287</v>
+        <v>729.638111208683</v>
       </c>
       <c r="N44" t="n">
-        <v>653.1084262398209</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,13 +38104,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>680.607728397287</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="N45" t="n">
-        <v>680.607728397287</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O45" t="n">
-        <v>465.7417458120011</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1313364.91521504</v>
+        <v>1312646.925100182</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.6830760719</v>
+        <v>698313.6830760741</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7631288.733615837</v>
+        <v>7631288.733615836</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>117.5875966600463</v>
+        <v>84.25514195253258</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>74.07475062513896</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>161.673798810038</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.4794233109049</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>190.2522762467033</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -1071,7 +1071,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>257.4638774372656</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>233.3783593926333</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>306.4438452115767</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
         <v>19.05969460684969</v>
@@ -1147,13 +1147,13 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>57.36335635934025</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1296,22 +1296,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>51.58543740429392</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1381,16 +1381,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>312.9009087555611</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>221.4655660477381</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>51.58543740429434</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1593,7 +1593,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>191.8669509257302</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1666,13 +1666,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>245.9424894880796</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>299.6307676070001</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>161.3674973507617</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100375</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1855,7 +1855,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
@@ -2004,10 +2004,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
@@ -2019,7 +2019,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -2052,22 +2052,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>33.12336333888572</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>180.0196592840957</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2137,10 +2137,10 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095521</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250137</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -2244,13 +2244,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
-        <v>181.2635869532363</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2481,22 +2481,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>154.8833258811978</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2727,7 +2727,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>98.15366458399308</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3195,10 +3195,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>58.33552926585361</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>11.12043047005062</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3523,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3666,13 +3666,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>51.58543740429501</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>98.15366458399561</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
@@ -3723,7 +3723,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>272.1038797892093</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3757,7 +3757,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>186.9176635037755</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -3799,7 +3799,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>245.9424894880796</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3903,13 +3903,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>51.58543740429501</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>104.9037564455519</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>411.0014705972759</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3997,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>29.89949249262175</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
@@ -4137,25 +4137,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T46" t="n">
-        <v>225.5026140238541</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
@@ -4330,25 +4330,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>455.3583126271592</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>455.3583126271592</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M2" t="n">
-        <v>1006.023847611597</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="N2" t="n">
-        <v>1556.689382596036</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="O2" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P2" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q2" t="n">
         <v>2107.354917580474</v>
@@ -4357,25 +4357,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>1862.189048931929</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V2" t="n">
-        <v>1504.699634058179</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W2" t="n">
-        <v>1504.699634058179</v>
+        <v>1471.030487888973</v>
       </c>
       <c r="X2" t="n">
-        <v>1092.979635225926</v>
+        <v>1059.31048905672</v>
       </c>
       <c r="Y2" t="n">
-        <v>687.6423651808162</v>
+        <v>653.9732190116105</v>
       </c>
     </row>
     <row r="3">
@@ -4415,16 +4415,16 @@
         <v>874.3078922751886</v>
       </c>
       <c r="L3" t="n">
-        <v>874.3078922751886</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="M3" t="n">
-        <v>874.3078922751886</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N3" t="n">
-        <v>874.3078922751886</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O3" t="n">
-        <v>1424.973427259627</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P3" t="n">
         <v>1853.185855629757</v>
@@ -4512,28 +4512,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2224.911252462377</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T4" t="n">
-        <v>2224.911252462377</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U4" t="n">
-        <v>2224.911252462377</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V4" t="n">
-        <v>2061.60438497749</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W4" t="n">
-        <v>1786.751981150003</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="X4" t="n">
-        <v>1544.188084595808</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="Y4" t="n">
-        <v>1317.84531628555</v>
+        <v>1202.502328002918</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1036.972874144192</v>
+        <v>533.9701437626245</v>
       </c>
       <c r="C5" t="n">
-        <v>1014.112548197896</v>
+        <v>511.1098178163287</v>
       </c>
       <c r="D5" t="n">
-        <v>994.8603314233001</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E5" t="n">
-        <v>802.6863150124886</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
-        <v>377.5621332018889</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4570,22 +4570,22 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>455.3583126271592</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L5" t="n">
-        <v>1006.023847611597</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M5" t="n">
-        <v>1006.023847611597</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N5" t="n">
-        <v>1006.023847611597</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O5" t="n">
-        <v>1556.689382596036</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4600,19 +4600,19 @@
         <v>2120.543958335517</v>
       </c>
       <c r="U5" t="n">
-        <v>1862.189048931929</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V5" t="n">
-        <v>1862.189048931929</v>
+        <v>1763.054543461766</v>
       </c>
       <c r="W5" t="n">
-        <v>1465.797699232276</v>
+        <v>1366.663193762113</v>
       </c>
       <c r="X5" t="n">
-        <v>1458.118104440427</v>
+        <v>1358.983598970264</v>
       </c>
       <c r="Y5" t="n">
-        <v>1052.780834395317</v>
+        <v>953.6463289251548</v>
       </c>
     </row>
     <row r="6">
@@ -4643,19 +4643,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>287.7093087981016</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>838.3748437825398</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>838.3748437825398</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M6" t="n">
-        <v>838.3748437825398</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="N6" t="n">
         <v>1389.040378766978</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1127.679347573484</v>
+        <v>983.8830790816388</v>
       </c>
       <c r="C7" t="n">
-        <v>955.7067844524004</v>
+        <v>811.9105159605548</v>
       </c>
       <c r="D7" t="n">
-        <v>792.3900115791711</v>
+        <v>648.5937430873255</v>
       </c>
       <c r="E7" t="n">
-        <v>626.1818057320246</v>
+        <v>482.385537240179</v>
       </c>
       <c r="F7" t="n">
-        <v>454.3200315065851</v>
+        <v>310.5237630147394</v>
       </c>
       <c r="G7" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H7" t="n">
         <v>144.2667933089716</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2054.776204981511</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T7" t="n">
-        <v>2054.776204981511</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U7" t="n">
-        <v>2054.776204981511</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V7" t="n">
-        <v>2054.776204981511</v>
+        <v>1917.808116485644</v>
       </c>
       <c r="W7" t="n">
-        <v>1779.923801154024</v>
+        <v>1642.955712658157</v>
       </c>
       <c r="X7" t="n">
-        <v>1544.188084595808</v>
+        <v>1400.391816103962</v>
       </c>
       <c r="Y7" t="n">
-        <v>1317.84531628555</v>
+        <v>1174.049047793704</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>591.614269593831</v>
+        <v>164.8266109787492</v>
       </c>
       <c r="C8" t="n">
-        <v>164.7135396071311</v>
+        <v>141.9662850324534</v>
       </c>
       <c r="D8" t="n">
-        <v>145.4613228325354</v>
+        <v>122.7140682578577</v>
       </c>
       <c r="E8" t="n">
-        <v>123.524787020797</v>
+        <v>100.7775324461193</v>
       </c>
       <c r="F8" t="n">
-        <v>102.4410092506013</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4813,16 +4813,16 @@
         <v>1145.829295018124</v>
       </c>
       <c r="M8" t="n">
-        <v>1556.689382596036</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>1556.689382596036</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O8" t="n">
-        <v>1556.689382596036</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
         <v>2107.354917580474</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462377</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462377</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W8" t="n">
-        <v>1828.519902762723</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X8" t="n">
-        <v>1416.799903930471</v>
+        <v>879.7031186113101</v>
       </c>
       <c r="Y8" t="n">
-        <v>1011.462633885361</v>
+        <v>474.3658485662004</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L9" t="n">
-        <v>595.1637600336857</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M9" t="n">
-        <v>751.8547856608809</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N9" t="n">
-        <v>1302.520320645319</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="O9" t="n">
-        <v>1853.185855629757</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5772905989112</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>96.60472747782725</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>44.49822504924753</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>44.49822504924753</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4989,25 +4989,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754298</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>685.0860276212348</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>458.7432593109769</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2429.413071721396</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C11" t="n">
-        <v>2002.512341734696</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D11" t="n">
-        <v>1579.219720919696</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E11" t="n">
-        <v>1153.242781067554</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F11" t="n">
-        <v>728.1185992569538</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>323.7795368464024</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>100.0769448789901</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>100.0769448789901</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>815.5852528544892</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1745.210300473766</v>
+        <v>1872.495398835621</v>
       </c>
       <c r="M11" t="n">
-        <v>2749.496401892824</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="N11" t="n">
-        <v>3725.747460379525</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O11" t="n">
-        <v>4570.892110530337</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P11" t="n">
-        <v>4886.290909067604</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q11" t="n">
-        <v>4886.290909067604</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R11" t="n">
-        <v>5003.847243949506</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>4899.479949822647</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>4678.554378867279</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>4420.199469463691</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>4062.710054589941</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>3666.318704890288</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X11" t="n">
-        <v>3254.598706058036</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y11" t="n">
-        <v>2849.261436012926</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="12">
@@ -5102,10 +5102,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
         <v>247.5068098990765</v>
@@ -5129,19 +5129,19 @@
         <v>100.0769448789901</v>
       </c>
       <c r="M12" t="n">
-        <v>819.4496289866299</v>
+        <v>273.2848420391474</v>
       </c>
       <c r="N12" t="n">
-        <v>1908.7645754595</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="O12" t="n">
-        <v>1908.7645754595</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="P12" t="n">
-        <v>1908.7645754595</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q12" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R12" t="n">
         <v>1908.7645754595</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>324.1560104286543</v>
+        <v>610.1194880726601</v>
       </c>
       <c r="C13" t="n">
-        <v>152.1834473075703</v>
+        <v>438.1469249515761</v>
       </c>
       <c r="D13" t="n">
-        <v>100.0769448789901</v>
+        <v>438.1469249515761</v>
       </c>
       <c r="E13" t="n">
-        <v>100.0769448789901</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F13" t="n">
         <v>100.0769448789901</v>
@@ -5199,13 +5199,13 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>157.5682731031482</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
         <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
         <v>1129.970990573657</v>
@@ -5217,34 +5217,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2233.451358979292</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2063.316311498427</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T13" t="n">
-        <v>1819.976963724327</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U13" t="n">
-        <v>1539.792515224631</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="V13" t="n">
-        <v>1258.08104783266</v>
+        <v>1305.119661145486</v>
       </c>
       <c r="W13" t="n">
-        <v>983.2286440051728</v>
+        <v>1030.267257317999</v>
       </c>
       <c r="X13" t="n">
-        <v>740.6647474509779</v>
+        <v>836.4622563829181</v>
       </c>
       <c r="Y13" t="n">
-        <v>514.3219791407199</v>
+        <v>610.1194880726601</v>
       </c>
     </row>
     <row r="14">
@@ -5278,7 +5278,7 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>462.6804036958857</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
         <v>1178.188711671385</v>
@@ -5287,37 +5287,37 @@
         <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>3112.09986070972</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="N14" t="n">
-        <v>3702.617114294512</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O14" t="n">
-        <v>4547.761764445324</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P14" t="n">
-        <v>4547.761764445324</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q14" t="n">
-        <v>5003.847243949507</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
-        <v>5003.847243949507</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>4899.479949822648</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>4678.55437886728</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>4420.199469463692</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>4062.710054589942</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W14" t="n">
-        <v>3666.318704890289</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X14" t="n">
         <v>3363.661363873117</v>
@@ -5339,10 +5339,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
         <v>247.5068098990765</v>
@@ -5360,25 +5360,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>100.0769448789901</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="L15" t="n">
-        <v>100.0769448789901</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="M15" t="n">
-        <v>819.4496289866299</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="N15" t="n">
-        <v>1908.7645754595</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="O15" t="n">
-        <v>1908.7645754595</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="P15" t="n">
-        <v>1908.7645754595</v>
+        <v>1406.759588485828</v>
       </c>
       <c r="Q15" t="n">
-        <v>1908.7645754595</v>
+        <v>1870.905065348607</v>
       </c>
       <c r="R15" t="n">
         <v>1908.7645754595</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1183.258067403227</v>
+        <v>836.2129962810334</v>
       </c>
       <c r="C16" t="n">
-        <v>1011.285504282143</v>
+        <v>836.2129962810334</v>
       </c>
       <c r="D16" t="n">
-        <v>847.9687314089136</v>
+        <v>672.8962234078041</v>
       </c>
       <c r="E16" t="n">
-        <v>681.7605255617672</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="F16" t="n">
         <v>509.8987513363276</v>
@@ -5430,19 +5430,19 @@
         <v>343.6417816305598</v>
       </c>
       <c r="H16" t="n">
-        <v>199.8455131387142</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I16" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>157.5682731031482</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
         <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
         <v>1129.970990573657</v>
@@ -5454,34 +5454,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2280.489972292119</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T16" t="n">
-        <v>2280.489972292119</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U16" t="n">
-        <v>2280.489972292119</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="V16" t="n">
-        <v>2117.183104807232</v>
+        <v>1305.119661145486</v>
       </c>
       <c r="W16" t="n">
-        <v>1842.330700979745</v>
+        <v>1305.119661145486</v>
       </c>
       <c r="X16" t="n">
-        <v>1599.766804425551</v>
+        <v>1062.555764591291</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.424036115293</v>
+        <v>836.2129962810334</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
         <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5515,7 +5515,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
         <v>1180.414480198223</v>
@@ -5524,43 +5524,43 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>3453.877904731004</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>3306.448039710918</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L18" t="n">
-        <v>3306.448039710918</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M18" t="n">
-        <v>4362.434577686963</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N18" t="n">
-        <v>5115.135670291426</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O18" t="n">
-        <v>5115.135670291426</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P18" t="n">
-        <v>5115.135670291426</v>
+        <v>1408.985357012666</v>
       </c>
       <c r="Q18" t="n">
-        <v>5115.135670291426</v>
+        <v>1873.130833875445</v>
       </c>
       <c r="R18" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1185.483835930065</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.511272808981</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="D19" t="n">
-        <v>850.1944999357521</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886056</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F19" t="n">
-        <v>512.124519863166</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H19" t="n">
         <v>202.0712816655526</v>
@@ -5673,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5700,25 +5700,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T19" t="n">
-        <v>2065.542080025265</v>
+        <v>2202.219184739579</v>
       </c>
       <c r="U19" t="n">
-        <v>2065.542080025265</v>
+        <v>1922.034736239883</v>
       </c>
       <c r="V19" t="n">
-        <v>1783.830612633294</v>
+        <v>1640.323268847912</v>
       </c>
       <c r="W19" t="n">
-        <v>1783.830612633294</v>
+        <v>1365.470865020425</v>
       </c>
       <c r="X19" t="n">
-        <v>1601.992572952389</v>
+        <v>1122.90696846623</v>
       </c>
       <c r="Y19" t="n">
-        <v>1375.649804642131</v>
+        <v>896.5642001559722</v>
       </c>
     </row>
     <row r="20">
@@ -5752,37 +5752,37 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>3086.290586304201</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>3931.435236455013</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4639.71451561294</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
-        <v>5095.799995117123</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5834,25 +5834,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M21" t="n">
-        <v>821.6753975134684</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>603.8002552472883</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>431.8276921262043</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>268.510919252975</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
         <v>102.3027134058285</v>
@@ -5910,10 +5910,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5937,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>2099.621208542961</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1819.436760043265</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1537.725292651294</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>1262.872888823807</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>1020.308992269612</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>793.966223959354</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>3453.877904731004</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>3578.145528990509</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>3578.145528990509</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L24" t="n">
-        <v>3578.145528990509</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M24" t="n">
-        <v>3578.145528990509</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N24" t="n">
-        <v>4667.460475463378</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O24" t="n">
-        <v>4667.460475463378</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P24" t="n">
-        <v>4667.460475463378</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>5115.135670291426</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
         <v>741.0109641302445</v>
@@ -6174,25 +6174,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>2001.004273426986</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1844.556469506584</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6305,19 +6305,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L27" t="n">
-        <v>939.1015214887346</v>
+        <v>1801.283937336665</v>
       </c>
       <c r="M27" t="n">
-        <v>939.1015214887346</v>
+        <v>1801.283937336665</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1801.283937336665</v>
       </c>
       <c r="O27" t="n">
         <v>1910.990343986338</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>446.1370507523521</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C28" t="n">
-        <v>274.1644876312681</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D28" t="n">
-        <v>274.1644876312681</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E28" t="n">
-        <v>274.1644876312681</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="G28" t="n">
         <v>102.3027134058285</v>
@@ -6384,10 +6384,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2185.297351822124</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>1941.958004048024</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U28" t="n">
-        <v>1661.773555548329</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V28" t="n">
-        <v>1380.062088156358</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W28" t="n">
-        <v>1105.20968432887</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X28" t="n">
-        <v>862.6457877746757</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y28" t="n">
-        <v>636.3030194644177</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,49 +6451,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>1983.783825177544</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6548,16 +6548,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>305.3113489363686</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>305.3113489363686</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N30" t="n">
-        <v>305.3113489363686</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O30" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P30" t="n">
         <v>1910.990343986338</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3205.840321740789</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>3033.867758619705</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>3033.867758619705</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>3033.867758619705</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>4945.000622810561</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>4701.661275036461</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>4421.476826536766</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>4139.765359144794</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>3864.912955317307</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>3622.349058763113</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>3396.006290452855</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>651.5495334576507</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1581.174581076927</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2585.460682495986</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N32" t="n">
-        <v>3561.711740982686</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4406.856391133499</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6785,22 +6785,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3608.081958945197</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="C34" t="n">
-        <v>3436.109395824113</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="D34" t="n">
-        <v>3272.792622950884</v>
+        <v>161.2274904420443</v>
       </c>
       <c r="E34" t="n">
-        <v>3106.584417103737</v>
+        <v>161.2274904420443</v>
       </c>
       <c r="F34" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5115.135670291426</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>5115.135670291426</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T34" t="n">
-        <v>5103.90291224087</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U34" t="n">
-        <v>4823.718463741175</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V34" t="n">
-        <v>4542.006996349203</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W34" t="n">
-        <v>4267.154592521716</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X34" t="n">
-        <v>4024.590695967521</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y34" t="n">
-        <v>3798.247927657263</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2184.700581617281</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N35" t="n">
-        <v>3160.951640103982</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>3950.770911629315</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>4659.050190787243</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7019,25 +7019,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1408.985357012666</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1873.130833875445</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808981</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7125,22 +7125,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T37" t="n">
-        <v>2282.715740818957</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U37" t="n">
-        <v>2282.715740818957</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V37" t="n">
-        <v>2119.408873334071</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W37" t="n">
-        <v>1844.556469506584</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X37" t="n">
-        <v>1601.992572952389</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D38" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E38" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7259,16 +7259,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P39" t="n">
         <v>1910.990343986338</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3158.801708427963</v>
+        <v>373.4203922683222</v>
       </c>
       <c r="C40" t="n">
-        <v>2986.829145306879</v>
+        <v>201.4478291472383</v>
       </c>
       <c r="D40" t="n">
-        <v>2934.722642878298</v>
+        <v>201.4478291472383</v>
       </c>
       <c r="E40" t="n">
-        <v>2934.722642878298</v>
+        <v>201.4478291472383</v>
       </c>
       <c r="F40" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>4897.962009497734</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T40" t="n">
-        <v>4654.622661723634</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U40" t="n">
-        <v>4374.438213223939</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V40" t="n">
-        <v>4092.726745831968</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W40" t="n">
-        <v>3817.874342004481</v>
+        <v>1032.493025844841</v>
       </c>
       <c r="X40" t="n">
-        <v>3575.310445450286</v>
+        <v>789.9291292906458</v>
       </c>
       <c r="Y40" t="n">
-        <v>3348.967677140028</v>
+        <v>563.5863609803879</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2429.413071721397</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C41" t="n">
-        <v>2002.512341734697</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D41" t="n">
-        <v>1579.219720919697</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E41" t="n">
-        <v>1153.242781067554</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F41" t="n">
-        <v>728.1185992569547</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G41" t="n">
-        <v>323.7795368464033</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H41" t="n">
         <v>134.9738161355189</v>
@@ -7411,7 +7411,7 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>462.6804036958857</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
         <v>1178.188711671385</v>
@@ -7420,43 +7420,43 @@
         <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>3112.09986070972</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N41" t="n">
-        <v>4088.350919196421</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O41" t="n">
-        <v>4933.495569347233</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P41" t="n">
-        <v>5003.847243949507</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q41" t="n">
-        <v>5003.847243949507</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
-        <v>5003.847243949507</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>4899.479949822648</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>4678.55437886728</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>4420.199469463692</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V41" t="n">
-        <v>4062.710054589942</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W41" t="n">
-        <v>3666.318704890289</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X41" t="n">
-        <v>3254.598706058036</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y41" t="n">
-        <v>2849.261436012927</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="42">
@@ -7472,10 +7472,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
         <v>247.5068098990765</v>
@@ -7487,31 +7487,31 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J42" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="K42" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="L42" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="M42" t="n">
-        <v>819.4496289866299</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="N42" t="n">
-        <v>1908.7645754595</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="O42" t="n">
-        <v>1908.7645754595</v>
+        <v>646.4020714735193</v>
       </c>
       <c r="P42" t="n">
-        <v>1908.7645754595</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q42" t="n">
-        <v>1908.7645754595</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R42" t="n">
         <v>1908.7645754595</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3047.513282086044</v>
+        <v>541.3296712223457</v>
       </c>
       <c r="C43" t="n">
-        <v>2875.54071896496</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="D43" t="n">
-        <v>2823.434216536379</v>
+        <v>206.0403352280324</v>
       </c>
       <c r="E43" t="n">
-        <v>2823.434216536379</v>
+        <v>206.0403352280324</v>
       </c>
       <c r="F43" t="n">
-        <v>2823.434216536379</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G43" t="n">
-        <v>2823.434216536379</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H43" t="n">
-        <v>2823.434216536379</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I43" t="n">
-        <v>2823.434216536379</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>2880.925544760537</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>3107.453145966374</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>3462.142467260795</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>3853.328262231046</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>4230.819773107081</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>4586.247901786845</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>4876.847113708745</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>5003.847243949507</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>4956.80863063668</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>4786.673583155815</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T43" t="n">
-        <v>4543.334235381715</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U43" t="n">
-        <v>4263.14978688202</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V43" t="n">
-        <v>3981.438319490049</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="W43" t="n">
-        <v>3706.585915662562</v>
+        <v>1200.402304798864</v>
       </c>
       <c r="X43" t="n">
-        <v>3464.022019108367</v>
+        <v>957.8384082446693</v>
       </c>
       <c r="Y43" t="n">
-        <v>3237.679250798109</v>
+        <v>731.4956399344113</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2538.475729536478</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C44" t="n">
-        <v>2111.574999549778</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D44" t="n">
-        <v>1688.282378734778</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E44" t="n">
-        <v>1262.305438882635</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F44" t="n">
-        <v>837.1812570720355</v>
+        <v>802.2843858155067</v>
       </c>
       <c r="G44" t="n">
-        <v>432.8421946614841</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H44" t="n">
-        <v>134.9738161355189</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I44" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>462.6804036958857</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
         <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>1178.188711671385</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>1900.530441767981</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N44" t="n">
-        <v>2876.781500254682</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O44" t="n">
-        <v>3721.926150405494</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>4430.205429563422</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>4886.290909067605</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
-        <v>5003.847243949507</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>5003.847243949507</v>
+        <v>4973.6457363812</v>
       </c>
       <c r="T44" t="n">
-        <v>4782.92167299414</v>
+        <v>4752.720165425832</v>
       </c>
       <c r="U44" t="n">
-        <v>4524.566763590552</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V44" t="n">
-        <v>4167.077348716802</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W44" t="n">
-        <v>3770.685999017149</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X44" t="n">
-        <v>3358.966000184896</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y44" t="n">
-        <v>2953.628730139787</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="45">
@@ -7709,10 +7709,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
         <v>247.5068098990765</v>
@@ -7736,13 +7736,13 @@
         <v>100.0769448789901</v>
       </c>
       <c r="M45" t="n">
-        <v>819.4496289866299</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N45" t="n">
-        <v>1908.7645754595</v>
+        <v>303.0855804095302</v>
       </c>
       <c r="O45" t="n">
-        <v>1908.7645754595</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="P45" t="n">
         <v>1908.7645754595</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>509.8499874777062</v>
+        <v>443.9112822255137</v>
       </c>
       <c r="C46" t="n">
-        <v>509.8499874777062</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="D46" t="n">
-        <v>509.8499874777062</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E46" t="n">
-        <v>343.6417816305598</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F46" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G46" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H46" t="n">
-        <v>199.8455131387142</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I46" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>157.5682731031482</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
         <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
         <v>1129.970990573657</v>
@@ -7824,34 +7824,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2233.451358979292</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S46" t="n">
-        <v>2233.451358979292</v>
+        <v>2183.071583295286</v>
       </c>
       <c r="T46" t="n">
-        <v>2005.670940773379</v>
+        <v>1939.732235521186</v>
       </c>
       <c r="U46" t="n">
-        <v>1725.486492273683</v>
+        <v>1659.54778702149</v>
       </c>
       <c r="V46" t="n">
-        <v>1443.775024881712</v>
+        <v>1377.836319629519</v>
       </c>
       <c r="W46" t="n">
-        <v>1168.922621054225</v>
+        <v>1102.983915802032</v>
       </c>
       <c r="X46" t="n">
-        <v>926.3587245000299</v>
+        <v>860.4200192478372</v>
       </c>
       <c r="Y46" t="n">
-        <v>700.0159561897719</v>
+        <v>634.0772509375793</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>450.7747902674474</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
@@ -7990,16 +7990,16 @@
         <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>593.5074359500402</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8063,7 +8063,7 @@
         <v>578.6270469489275</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>455.0528931487048</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
@@ -8072,10 +8072,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>454.308647639304</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
         <v>22.7470382889785</v>
@@ -8218,7 +8218,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>450.7747902674474</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
         <v>594.539855548217</v>
@@ -8230,13 +8230,13 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>547.9365584046775</v>
       </c>
       <c r="P5" t="n">
         <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>266.2788756958121</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
         <v>578.6270469489275</v>
@@ -8303,10 +8303,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>543.0285850494889</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
@@ -8461,7 +8461,7 @@
         <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>452.4414523720698</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
@@ -8470,10 +8470,10 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>548.1209608588846</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3705437721212</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>460.2559062950365</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>977.3272420480539</v>
+        <v>739.6319284571039</v>
       </c>
       <c r="M11" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>356.1600067973696</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8777,7 +8777,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>749.7358553685298</v>
+        <v>198.0542523912747</v>
       </c>
       <c r="N12" t="n">
         <v>1121.661155963915</v>
@@ -8789,10 +8789,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,22 +8935,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>814.1663547822778</v>
       </c>
       <c r="N14" t="n">
-        <v>633.7616971625187</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,28 +9008,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>749.7358553685298</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>61.91484879908644</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,22 +9172,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>218.8019602116006</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,28 +9245,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>781.6471621574439</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>61.91484879908644</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9409,7 +9409,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>37.43126289943181</v>
+        <v>304.4845953330648</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9424,7 +9424,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>54.56363491934506</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,28 +9482,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>700.5970200580485</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,22 +9646,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
@@ -9728,19 +9728,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>700.5970200580485</v>
       </c>
       <c r="Q24" t="n">
-        <v>474.9442047819563</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286663</v>
+        <v>100.0581876036193</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>867.7664080100944</v>
@@ -9965,10 +9965,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1003.048909524252</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>133.9864418936091</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>849.7962292804214</v>
       </c>
       <c r="M29" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,19 +10196,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>227.574314522856</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>590.5593685239227</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10369,10 +10369,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,13 +10433,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>920.2011215599057</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10451,7 +10451,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10591,16 +10591,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O35" t="n">
-        <v>835.188203321007</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
         <v>753.0089771212694</v>
@@ -10609,7 +10609,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,28 +10667,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>61.91484879908644</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10831,22 +10831,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286663</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,19 +10907,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>281.4457336203087</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
@@ -11068,22 +11068,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>108.6376593882861</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
         <v>20.61111433333334</v>
@@ -11147,22 +11147,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>749.7358553685298</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>567.4935903612297</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11302,13 +11302,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>767.0693741081147</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11384,16 +11384,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>749.7358553685298</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>1121.661155963915</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>73.4241286929674</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.0981677402027</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>48.27130666292274</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23554,13 +23554,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>107.9720312369334</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>107.9720312369301</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>3.178626437913294</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23703,19 +23703,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080138</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23940,22 +23940,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>207.7825909574733</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>60.1185983045572</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24177,10 +24177,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
-        <v>59.64236734312274</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,19 +24414,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>68.15019490184623</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24651,7 +24651,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>71.9894918991922</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>71.9894918991921</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24888,7 +24888,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25083,10 +25083,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>111.8076272173316</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>229.7855238263084</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>65.23940003763305</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>110.098167740202</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>71.98949189918957</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>107.97203123693</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>107.9720312369334</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>110.098167740202</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>65.2394000376333</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4.648410051338828</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>73.42412869296925</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T46" t="n">
-        <v>15.40334027250486</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>651070.0717141234</v>
+        <v>651070.0717141231</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>651070.0717141235</v>
+        <v>651070.0717141232</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>661181.7836451443</v>
+        <v>661181.7836451442</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>661181.7836451443</v>
+        <v>661181.7836451442</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>661181.7836451443</v>
+        <v>661181.7836451442</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>651070.0717141235</v>
+        <v>651070.0717141231</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>651070.0717141235</v>
+        <v>651070.0717141231</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>378587.7342072561</v>
+        <v>378587.7342072559</v>
       </c>
       <c r="C2" t="n">
         <v>378587.734207256</v>
       </c>
       <c r="D2" t="n">
-        <v>378587.7342072559</v>
+        <v>378587.7342072558</v>
       </c>
       <c r="E2" t="n">
+        <v>359733.2891431419</v>
+      </c>
+      <c r="F2" t="n">
         <v>359733.2891431418</v>
       </c>
-      <c r="F2" t="n">
-        <v>359733.2891431419</v>
-      </c>
       <c r="G2" t="n">
+        <v>365319.7620393409</v>
+      </c>
+      <c r="H2" t="n">
         <v>365319.7620393407</v>
-      </c>
-      <c r="H2" t="n">
-        <v>365319.7620393408</v>
       </c>
       <c r="I2" t="n">
         <v>365319.7620393407</v>
       </c>
       <c r="J2" t="n">
+        <v>365319.7620393407</v>
+      </c>
+      <c r="K2" t="n">
         <v>365319.7620393409</v>
       </c>
-      <c r="K2" t="n">
-        <v>365319.7620393407</v>
-      </c>
       <c r="L2" t="n">
-        <v>365319.7620393407</v>
+        <v>365319.7620393408</v>
       </c>
       <c r="M2" t="n">
-        <v>365319.7620393407</v>
+        <v>365319.7620393408</v>
       </c>
       <c r="N2" t="n">
-        <v>365319.7620393408</v>
+        <v>365319.7620393409</v>
       </c>
       <c r="O2" t="n">
+        <v>359733.2891431418</v>
+      </c>
+      <c r="P2" t="n">
         <v>359733.2891431419</v>
-      </c>
-      <c r="P2" t="n">
-        <v>359733.2891431421</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>207432.2876165611</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7625.622083481234</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>173130.4912056397</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>165375.7390424566</v>
       </c>
       <c r="E4" t="n">
-        <v>43077.56596046207</v>
+        <v>43077.56596046206</v>
       </c>
       <c r="F4" t="n">
-        <v>43077.56596046207</v>
+        <v>43077.56596046206</v>
       </c>
       <c r="G4" t="n">
         <v>43748.40045389556</v>
       </c>
       <c r="H4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="I4" t="n">
         <v>43748.40045389556</v>
       </c>
       <c r="J4" t="n">
-        <v>43748.40045389557</v>
+        <v>43748.40045389558</v>
       </c>
       <c r="K4" t="n">
         <v>43748.40045389556</v>
@@ -26453,13 +26453,13 @@
         <v>43748.40045389556</v>
       </c>
       <c r="N4" t="n">
-        <v>43748.40045389556</v>
+        <v>43748.40045389557</v>
       </c>
       <c r="O4" t="n">
-        <v>43077.56596046207</v>
+        <v>43077.56596046206</v>
       </c>
       <c r="P4" t="n">
-        <v>43077.56596046207</v>
+        <v>43077.56596046206</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>76058.47810803249</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>76058.4781080325</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>76058.4781080325</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>76058.4781080325</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-40638.98928736587</v>
+        <v>-40638.98928736604</v>
       </c>
       <c r="C6" t="n">
-        <v>145765.7441273712</v>
+        <v>145765.7441273713</v>
       </c>
       <c r="D6" t="n">
-        <v>145765.7441273712</v>
+        <v>145765.7441273711</v>
       </c>
       <c r="E6" t="n">
-        <v>33164.95745808614</v>
+        <v>33092.44036168604</v>
       </c>
       <c r="F6" t="n">
-        <v>240597.2450746474</v>
+        <v>240524.7279782468</v>
       </c>
       <c r="G6" t="n">
-        <v>236195.6773135342</v>
+        <v>236144.6466513498</v>
       </c>
       <c r="H6" t="n">
-        <v>243821.2993970156</v>
+        <v>243770.2687348312</v>
       </c>
       <c r="I6" t="n">
-        <v>243821.2993970155</v>
+        <v>243770.2687348312</v>
       </c>
       <c r="J6" t="n">
-        <v>98287.62946219911</v>
+        <v>98236.59880001466</v>
       </c>
       <c r="K6" t="n">
-        <v>243821.2993970154</v>
+        <v>243770.2687348313</v>
       </c>
       <c r="L6" t="n">
-        <v>243821.2993970155</v>
+        <v>243770.2687348312</v>
       </c>
       <c r="M6" t="n">
-        <v>70690.80819137587</v>
+        <v>70639.77752919171</v>
       </c>
       <c r="N6" t="n">
-        <v>243821.2993970156</v>
+        <v>243770.2687348313</v>
       </c>
       <c r="O6" t="n">
-        <v>240597.2450746473</v>
+        <v>240524.7279782468</v>
       </c>
       <c r="P6" t="n">
-        <v>240597.2450746475</v>
+        <v>240524.727978247</v>
       </c>
     </row>
   </sheetData>
@@ -26798,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26828,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>694.7339978717824</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>27.82210658547981</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>694.7339978717824</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>694.7339978717824</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>27.82210658547981</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>298.0622839885684</v>
+        <v>331.3947386960821</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>114.189558399806</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>117.2205539080134</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0.17045733770982</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="E5" t="n">
-        <v>231.4648942069177</v>
-      </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,10 +27672,10 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -27833,13 +27833,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>21.4304752807858</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>6.759898196019606</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>109.2060354370381</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9323154271056</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>110.0981677402031</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,16 +28061,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -30243,7 +30243,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-1.429616271214126e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30443,7 +30443,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>2.757261086117069e-12</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>415.010189472638</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34710,16 +34710,16 @@
         <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
-        <v>556.2278131155941</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34783,7 +34783,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>432.5378064344753</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,10 +34792,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="P3" t="n">
-        <v>432.5378064344753</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>556.2278131155941</v>
@@ -34950,13 +34950,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>510.5455990486534</v>
       </c>
       <c r="P5" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35011,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>245.6677613624788</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
         <v>556.2278131155941</v>
@@ -35023,10 +35023,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35181,7 +35181,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35190,10 +35190,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>437.0840165728143</v>
+      </c>
+      <c r="P9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M9" t="n">
-        <v>158.2737632597932</v>
-      </c>
-      <c r="N9" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O9" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>939.015199615431</v>
+        <v>701.319886024481</v>
       </c>
       <c r="M11" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>318.5846449871383</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35497,7 +35497,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>726.6390748562018</v>
+        <v>174.9574718789468</v>
       </c>
       <c r="N12" t="n">
         <v>1100.318127750374</v>
@@ -35509,10 +35509,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35655,22 +35655,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="N14" t="n">
-        <v>596.4820743280726</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35892,22 +35892,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>181.2265984013693</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>760.3041339439022</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36129,7 +36129,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>267.053332433633</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36144,7 +36144,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>19.53098502454859</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>678.8261788532199</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,22 +36366,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36448,19 +36448,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>678.8261788532199</v>
       </c>
       <c r="Q24" t="n">
-        <v>452.1971664929778</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184349</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>845.2513212958648</v>
@@ -36685,10 +36685,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>110.8145521713869</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>811.4841868477985</v>
       </c>
       <c r="M29" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>554.7947677291133</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37089,10 +37089,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,13 +37153,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>898.8580933463641</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37311,16 +37311,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O35" t="n">
-        <v>797.797243964983</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
         <v>715.433615311038</v>
@@ -37329,7 +37329,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>38.24192940494229</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37551,22 +37551,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184349</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37788,22 +37788,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>71.06229757805477</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38022,13 +38022,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>729.638111208683</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38104,16 +38104,16 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1100.318127750374</v>
+        <v>205.0592278086263</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
